--- a/E-Com/media/file/Bulk-Catalog-68111.xlsx
+++ b/E-Com/media/file/Bulk-Catalog-68111.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Task\E-Com\media\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB191BF-B75A-4004-AE16-3BE62CF4A6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Images1</t>
   </si>
@@ -80,13 +86,58 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>shirt1</t>
+  </si>
+  <si>
+    <t>shirt2</t>
+  </si>
+  <si>
+    <t>shirt3</t>
+  </si>
+  <si>
+    <t>men shirt</t>
+  </si>
+  <si>
+    <t>US POLO</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/media/Product/WhatsApp_Image_2023-07-04_at_13.19.27_xmMvQBZ.jpg</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/media/Product/WhatsApp_Image_2023-07-04_at_13.19.26_d7KAT0U.jpg</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/media/Product/WhatsApp_Image_2023-07-04_at_13.19.28_aufjDFb.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +151,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,13 +193,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +245,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -248,9 +314,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,14 +490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,44 +552,168 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>799</v>
+      </c>
+      <c r="H2">
+        <v>1499</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
       </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>799</v>
+      </c>
+      <c r="H3">
+        <v>1499</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>799</v>
+      </c>
+      <c r="H4">
+        <v>1499</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{446EAC8E-FFEC-41AE-A7C0-0E5C9CEE66CA}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{74B01E5F-48E2-4C0A-B53C-192DA955E56E}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{D010B7F2-C1A2-418E-9CBA-B54C7F22ECEA}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{A02CB31A-CECB-46ED-ADAD-4950342CDEF9}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{666A4B5E-63F4-47E5-9D3C-C9E6C09AE39B}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{C0AE0E8F-CE31-45B0-9F8A-CCE69B2A3FFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
